--- a/data/trans_bre/P19D_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19D_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7478229411862108</v>
+        <v>-0.8600376818865512</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.30502675558579</v>
+        <v>-2.269888411051022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.982447026314096</v>
+        <v>-3.009496871597437</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.5776124635329</v>
+        <v>-11.95210674030352</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1520429651834382</v>
+        <v>-0.1760669385998853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1986224514915249</v>
+        <v>-0.1899221358757879</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2100426219774576</v>
+        <v>-0.2095424233848214</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8396966877020557</v>
+        <v>-0.8514499377880864</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.7497299875896</v>
+        <v>5.589305142546134</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.434880454216197</v>
+        <v>6.837548549584302</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.122751134051838</v>
+        <v>7.00013875292463</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1729098479946372</v>
+        <v>0.3153259501401663</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.001659555320053</v>
+        <v>1.775445437330395</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8853730272116993</v>
+        <v>0.8260463379749655</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7887418718919446</v>
+        <v>0.7564673697059722</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1502089179355993</v>
+        <v>0.1482702956400374</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.855190985630808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.570435822688417</v>
+        <v>-1.570435822688418</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7474391631408032</v>
@@ -749,7 +749,7 @@
         <v>0.5733796283069136</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2333238362908547</v>
+        <v>-0.2333238362908548</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1839980616607653</v>
+        <v>-0.1363305725370745</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.2622350047438827</v>
+        <v>-0.2605358829296926</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2032158873473535</v>
+        <v>0.4131879050592359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.739401858693141</v>
+        <v>-5.944025181801337</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0006919459045806346</v>
+        <v>-0.06121271976465736</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03732564533686865</v>
+        <v>-0.03570678515847068</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01343482270103458</v>
+        <v>0.02919744519386641</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5967053673619827</v>
+        <v>-0.6101580882983758</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.023542260305979</v>
+        <v>4.971070698695371</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.331939631735971</v>
+        <v>6.968887732074329</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.504598003990659</v>
+        <v>7.402043257040379</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.778011561336933</v>
+        <v>1.742183201621408</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.363746801648177</v>
+        <v>2.212309523810251</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.134867645829391</v>
+        <v>1.008494196545703</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.512047870308442</v>
+        <v>1.464728325090271</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4621892597044223</v>
+        <v>0.43035405559179</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>-0.1986148864712799</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2801264319988674</v>
+        <v>-0.2801264319988675</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.725461950946289</v>
+        <v>-4.889413916428782</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.084171904720026</v>
+        <v>-6.94303194033038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.298196933122994</v>
+        <v>-4.107617291571483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.467809293726988</v>
+        <v>-4.331874245571898</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5382188123268502</v>
+        <v>-0.552022589099974</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5546586126782055</v>
+        <v>-0.5379857626417941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4702277301211893</v>
+        <v>-0.479805974787018</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5355521763535392</v>
+        <v>-0.5030781491363336</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.249062308274272</v>
+        <v>1.256048867991657</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1003410389031994</v>
+        <v>-0.1299035135190532</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.754933817721556</v>
+        <v>1.782853156036536</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6281677704379899</v>
+        <v>0.7321843447431786</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2487209070230322</v>
+        <v>0.2355421141647131</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.01293519625953276</v>
+        <v>0.002971222955557417</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2895447763521031</v>
+        <v>0.324990870280181</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1191622259810724</v>
+        <v>0.1493980894386705</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>-0.3870125815295067</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4960339721639421</v>
+        <v>-0.4960339721639422</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.306788586051299</v>
+        <v>-4.068043721235214</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.896102793238548</v>
+        <v>-9.001267252832628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.002817380366036</v>
+        <v>-7.913197570123905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.187163802679789</v>
+        <v>-6.586970074148288</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.449379780383629</v>
+        <v>-0.441438507730375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5623441027931569</v>
+        <v>-0.5750008763807912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5912349338201426</v>
+        <v>-0.5886485186066819</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6559211322620532</v>
+        <v>-0.668507695840838</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.039849060752645</v>
+        <v>3.165668811543964</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.7257371318717631</v>
+        <v>-0.9534015769986519</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.9587263170332408</v>
+        <v>-0.9755747124657793</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.410696224396945</v>
+        <v>-1.492167657241997</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5267312852560895</v>
+        <v>0.5079312254947908</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05337412564196949</v>
+        <v>-0.08280085419080076</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.09233882762849613</v>
+        <v>-0.08685994907831834</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.236854207007717</v>
+        <v>-0.2453272136185873</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.446059984633456</v>
+        <v>-9.797178550441842</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.86260774082528</v>
+        <v>-14.15494262096512</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.526707560819735</v>
+        <v>-6.800267844716725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.947293651818772</v>
+        <v>-5.826282026880664</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6328981002957302</v>
+        <v>-0.6450225792384315</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.657991703202831</v>
+        <v>-0.6644564419508051</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5506954549173183</v>
+        <v>-0.574320808599784</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5576229717768157</v>
+        <v>-0.5415038242531853</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.615559740700902</v>
+        <v>0.01492956238383733</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.429670493796471</v>
+        <v>-3.629839005068868</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.967175383721266</v>
+        <v>1.871389957066977</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.5105465864920169</v>
+        <v>-0.4713022394995818</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1009439442810464</v>
+        <v>0.02483614771539607</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.208881427774633</v>
+        <v>-0.2222673521709669</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2788753868711505</v>
+        <v>0.2558635991065026</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.07867753115635069</v>
+        <v>-0.05701659202034445</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-1.470655735558746</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-3.13827160104078</v>
+        <v>-3.138271601040782</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1110470576666371</v>
@@ -1149,7 +1149,7 @@
         <v>-0.1315293717485111</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2809196732990296</v>
+        <v>-0.2809196732990298</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-7.018812696182586</v>
+        <v>-6.847645178298325</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-15.1827706215686</v>
+        <v>-15.27451055292213</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-6.746379254649962</v>
+        <v>-6.166418975577606</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.378618472353585</v>
+        <v>-6.26654508628702</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4802235323584668</v>
+        <v>-0.4839491099580868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5983768740254823</v>
+        <v>-0.600585326276151</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4822134426746387</v>
+        <v>-0.4687074300293241</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4817282564711547</v>
+        <v>-0.4832589180255245</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.097489674554178</v>
+        <v>4.251637976551911</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-2.308310201264534</v>
+        <v>-2.125749776181307</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.574491670706125</v>
+        <v>4.377244946015219</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09114449297266877</v>
+        <v>0.4409773523241463</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5193058841541666</v>
+        <v>0.5573210933369475</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1288680145706481</v>
+        <v>-0.1126336907303353</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4369533335696832</v>
+        <v>0.5931296381104612</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01090965447157228</v>
+        <v>0.05937174997952005</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.4387830459411039</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.0559208772244872</v>
+        <v>-0.05592087722448719</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-16.37270248160293</v>
+        <v>-15.89419038594203</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.70716218499585</v>
+        <v>-14.92010404291717</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.69629252937492</v>
+        <v>-3.079498103542707</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.264710631433366</v>
+        <v>-4.240202474216321</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7983154855498074</v>
+        <v>-0.7620378088185128</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4637516963037623</v>
+        <v>-0.4880423147705414</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2473976457926705</v>
+        <v>-0.3246494783641933</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3364384579351979</v>
+        <v>-0.3304596226445994</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.25797119666752</v>
+        <v>-1.235395207282861</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.765987382289701</v>
+        <v>2.324329731951303</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.20035273204566</v>
+        <v>10.15957360979927</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.806271463292532</v>
+        <v>2.911002299129678</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.09548968556176407</v>
+        <v>-0.05904219103477083</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1506442087993263</v>
+        <v>0.130318583015937</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.831549410562197</v>
+        <v>1.847506217560249</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3402942398107118</v>
+        <v>0.3651188030923042</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-0.3779995334695432</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-2.694532888280378</v>
+        <v>-2.694532888280376</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.06716772999388397</v>
@@ -1349,7 +1349,7 @@
         <v>-0.04089774880225571</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.3163455153443376</v>
+        <v>-0.3163455153443375</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.995818800977585</v>
+        <v>-2.035713487179604</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-4.305301438705465</v>
+        <v>-4.369266147506937</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.10980573847629</v>
+        <v>-2.073120901255638</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-3.902512507186384</v>
+        <v>-4.056249525897827</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2438963438818913</v>
+        <v>-0.2595717597830285</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2980901805242601</v>
+        <v>-0.3022152643545722</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2044346626894344</v>
+        <v>-0.2038997001875376</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4192910678329037</v>
+        <v>-0.4350854965549151</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8644789934657683</v>
+        <v>0.8986021560086614</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.7765664971534342</v>
+        <v>-0.8762418670466204</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.30421418525035</v>
+        <v>1.148321342788876</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-1.344193076538035</v>
+        <v>-1.462747302002015</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1479035865117563</v>
+        <v>0.1362353804293921</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.06250199630673016</v>
+        <v>-0.06604834352115106</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1547385055223879</v>
+        <v>0.1371830292585692</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1763667708434366</v>
+        <v>-0.1872874920238715</v>
       </c>
     </row>
     <row r="28">
